--- a/data/output/dictionary_expand_label.xlsx
+++ b/data/output/dictionary_expand_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haohanchen/Library/CloudStorage/GoogleDrive-haohanch@gmail.com/My Drive/TEACHING/CSS_teaching/Lecture_word_embedding/data/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FD8D1-6D68-CA4B-ABDB-64789BE253DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51046972-601A-CD42-8757-DE5164C1E685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21880" windowHeight="24820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24080" windowHeight="28220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1432,6 +1432,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
